--- a/sim/SimISA.xlsx
+++ b/sim/SimISA.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\hn410\2021a\cpuex\fib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\hn410\2021a\cpuex\sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8DBCDA-E0A0-4845-B70F-64F54980C321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507933FA-9CDD-43AE-9523-E73881E3F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="585" windowWidth="18405" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29340" yWindow="4140" windowWidth="18405" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1st" sheetId="1" r:id="rId1"/>
+    <sheet name="2nd" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>命令種別</t>
     <rPh sb="0" eb="2">
@@ -87,13 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>混合</t>
-    <rPh sb="0" eb="2">
-      <t>コンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>funct</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -307,6 +301,38 @@
   </si>
   <si>
     <t>fle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>srli</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>srai</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lui</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -430,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -441,6 +467,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -472,10 +510,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -758,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26:S26"/>
+    <sheetView topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21:AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -795,60 +836,60 @@
       </c>
     </row>
     <row r="5" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B5" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="8" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="9" spans="2:32">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
+      <c r="L9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="12"/>
+      <c r="T9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="24"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="12"/>
+      <c r="AB9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="24"/>
     </row>
     <row r="10" spans="2:32">
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="4">
         <v>2</v>
       </c>
@@ -859,8 +900,8 @@
         <v>0</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="4">
         <v>4</v>
       </c>
@@ -876,8 +917,8 @@
       <c r="P10" s="5">
         <v>0</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="26"/>
       <c r="T10" s="4">
         <v>4</v>
       </c>
@@ -893,8 +934,8 @@
       <c r="X10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="14"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="26"/>
       <c r="AB10" s="4">
         <v>4</v>
       </c>
@@ -912,10 +953,10 @@
       </c>
     </row>
     <row r="11" spans="2:32">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="4">
         <v>0</v>
       </c>
@@ -926,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="J11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="14"/>
+      <c r="J11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="26"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
         <v>0</v>
@@ -943,10 +984,10 @@
       <c r="P11" s="5">
         <v>0</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="14"/>
+      <c r="R11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="26"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4">
         <v>0</v>
@@ -960,10 +1001,10 @@
       <c r="X11" s="5">
         <v>0</v>
       </c>
-      <c r="Z11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA11" s="14"/>
+      <c r="Z11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11" s="26"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4">
         <v>0</v>
@@ -979,10 +1020,10 @@
       </c>
     </row>
     <row r="12" spans="2:32">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="4">
         <v>0</v>
       </c>
@@ -993,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="J12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="14"/>
+      <c r="J12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="26"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
         <v>0</v>
@@ -1010,10 +1051,10 @@
       <c r="P12" s="5">
         <v>1</v>
       </c>
-      <c r="R12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="S12" s="14"/>
+      <c r="R12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="26"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4">
         <v>0</v>
@@ -1027,10 +1068,10 @@
       <c r="X12" s="5">
         <v>1</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA12" s="14"/>
+      <c r="Z12" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12" s="26"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4">
         <v>0</v>
@@ -1046,10 +1087,10 @@
       </c>
     </row>
     <row r="13" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="4">
         <v>0</v>
       </c>
@@ -1060,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="J13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="14"/>
+      <c r="J13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="26"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
         <v>0</v>
@@ -1077,10 +1118,10 @@
       <c r="P13" s="5">
         <v>0</v>
       </c>
-      <c r="R13" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="14"/>
+      <c r="R13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="26"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4">
         <v>0</v>
@@ -1094,10 +1135,10 @@
       <c r="X13" s="5">
         <v>0</v>
       </c>
-      <c r="Z13" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA13" s="16"/>
+      <c r="Z13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA13" s="28"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7">
         <v>0</v>
@@ -1113,10 +1154,10 @@
       </c>
     </row>
     <row r="14" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="42"/>
       <c r="D14" s="4">
         <v>0</v>
       </c>
@@ -1127,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="J14" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="10"/>
+      <c r="J14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="22"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4">
         <v>0</v>
@@ -1144,10 +1185,10 @@
       <c r="P14" s="5">
         <v>1</v>
       </c>
-      <c r="R14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="19"/>
+      <c r="R14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="31"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7">
         <v>0</v>
@@ -1161,8 +1202,8 @@
       <c r="X14" s="8">
         <v>1</v>
       </c>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -1184,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="J15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="10"/>
+      <c r="J15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="22"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4">
         <v>0</v>
@@ -1201,17 +1242,17 @@
       <c r="P15" s="5">
         <v>0</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="12"/>
+      <c r="AB15" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="23"/>
+      <c r="AF15" s="24"/>
     </row>
     <row r="16" spans="2:32">
       <c r="B16" s="6" t="s">
@@ -1228,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="J16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="10"/>
+      <c r="J16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="22"/>
       <c r="L16" s="4">
         <v>1</v>
       </c>
@@ -1249,15 +1290,15 @@
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="12"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="14"/>
+      <c r="T16" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
+      <c r="X16" s="24"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="26"/>
       <c r="AB16" s="4">
         <v>4</v>
       </c>
@@ -1275,10 +1316,10 @@
       </c>
     </row>
     <row r="17" spans="2:32">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -1289,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="J17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="10"/>
+      <c r="J17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="22"/>
       <c r="L17" s="4">
         <v>1</v>
       </c>
@@ -1308,8 +1349,8 @@
       <c r="P17" s="5">
         <v>0</v>
       </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="26"/>
       <c r="T17" s="4">
         <v>4</v>
       </c>
@@ -1325,10 +1366,10 @@
       <c r="X17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA17" s="14"/>
+      <c r="Z17" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA17" s="26"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4">
         <v>0</v>
@@ -1344,10 +1385,10 @@
       </c>
     </row>
     <row r="18" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B18" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="23"/>
+      <c r="B18" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="35"/>
       <c r="D18" s="7">
         <v>1</v>
       </c>
@@ -1358,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="J18" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="10"/>
+      <c r="J18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="22"/>
       <c r="L18" s="4">
         <v>1</v>
       </c>
@@ -1377,10 +1418,10 @@
       <c r="P18" s="5">
         <v>1</v>
       </c>
-      <c r="R18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="S18" s="14"/>
+      <c r="R18" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" s="26"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4">
         <v>0</v>
@@ -1394,10 +1435,10 @@
       <c r="X18" s="5">
         <v>0</v>
       </c>
-      <c r="Z18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA18" s="14"/>
+      <c r="Z18" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA18" s="26"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4">
         <v>0</v>
@@ -1413,12 +1454,12 @@
       </c>
     </row>
     <row r="19" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="J19" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="10"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="J19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="22"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
         <v>1</v>
@@ -1432,10 +1473,10 @@
       <c r="P19" s="5">
         <v>0</v>
       </c>
-      <c r="R19" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" s="14"/>
+      <c r="R19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="26"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4">
         <v>0</v>
@@ -1449,10 +1490,10 @@
       <c r="X19" s="5">
         <v>0</v>
       </c>
-      <c r="Z19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA19" s="16"/>
+      <c r="Z19" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA19" s="28"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7">
         <v>0</v>
@@ -1468,12 +1509,12 @@
       </c>
     </row>
     <row r="20" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="J20" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="19"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="J20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="31"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7">
         <v>1</v>
@@ -1487,10 +1528,10 @@
       <c r="P20" s="8">
         <v>1</v>
       </c>
-      <c r="R20" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="S20" s="14"/>
+      <c r="R20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="26"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4">
         <v>0</v>
@@ -1506,14 +1547,14 @@
       </c>
     </row>
     <row r="21" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="R21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="S21" s="19"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="R21" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="S21" s="31"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7">
         <v>0</v>
@@ -1529,38 +1570,38 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="12"/>
+      <c r="AB21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="24"/>
     </row>
     <row r="22" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="12"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="4">
+      <c r="L22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="24"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="21">
         <v>4</v>
       </c>
-      <c r="AC22" s="4">
+      <c r="AC22" s="21">
         <v>3</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AD22" s="21">
         <v>2</v>
       </c>
-      <c r="AE22" s="4">
+      <c r="AE22" s="21">
         <v>1</v>
       </c>
       <c r="AF22" s="5">
@@ -1568,8 +1609,8 @@
       </c>
     </row>
     <row r="23" spans="2:32">
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
       <c r="L23" s="4">
         <v>4</v>
       </c>
@@ -1587,36 +1628,36 @@
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="12"/>
-      <c r="Z23" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="4">
+      <c r="T23" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="24"/>
+      <c r="Z23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="21">
         <v>0</v>
       </c>
       <c r="AF23" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24" s="14"/>
+    <row r="24" spans="2:32">
+      <c r="J24" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="26"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4">
         <v>0</v>
@@ -1630,8 +1671,8 @@
       <c r="P24" s="5">
         <v>0</v>
       </c>
-      <c r="R24" s="13"/>
-      <c r="S24" s="14"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="26"/>
       <c r="T24" s="4">
         <v>4</v>
       </c>
@@ -1647,29 +1688,29 @@
       <c r="X24" s="5">
         <v>0</v>
       </c>
-      <c r="Z24" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA24" s="16"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:32">
-      <c r="J25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="14"/>
+      <c r="Z24" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="21"/>
+      <c r="AC24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" ht="19.5" thickBot="1">
+      <c r="J25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="26"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4">
         <v>0</v>
@@ -1683,10 +1724,10 @@
       <c r="P25" s="5">
         <v>1</v>
       </c>
-      <c r="R25" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="S25" s="14"/>
+      <c r="R25" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="S25" s="26"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4">
         <v>0</v>
@@ -1700,19 +1741,29 @@
       <c r="X25" s="5">
         <v>1</v>
       </c>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
+      <c r="Z25" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:32">
-      <c r="J26" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" s="14"/>
+      <c r="J26" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="26"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4">
         <v>0</v>
@@ -1726,10 +1777,10 @@
       <c r="P26" s="5">
         <v>0</v>
       </c>
-      <c r="R26" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="S26" s="14"/>
+      <c r="R26" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="S26" s="26"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4">
         <v>0</v>
@@ -1745,10 +1796,10 @@
       </c>
     </row>
     <row r="27" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J27" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K27" s="10"/>
+      <c r="J27" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="22"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4">
         <v>0</v>
@@ -1762,10 +1813,10 @@
       <c r="P27" s="5">
         <v>0</v>
       </c>
-      <c r="R27" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S27" s="16"/>
+      <c r="R27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="S27" s="28"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7">
         <v>0</v>
@@ -1781,31 +1832,31 @@
       </c>
     </row>
     <row r="28" spans="2:32">
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="4">
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32">
+      <c r="J29" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="4">
-        <v>1</v>
-      </c>
-      <c r="M28" s="4">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4">
-        <v>0</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0</v>
-      </c>
-      <c r="P28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:32">
-      <c r="J29" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="10"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="4">
         <v>1</v>
       </c>
@@ -1822,20 +1873,20 @@
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J30" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30" s="19"/>
+      <c r="J30" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="31"/>
       <c r="L30" s="7">
         <v>1</v>
       </c>
@@ -1853,8 +1904,8 @@
       </c>
     </row>
     <row r="31" spans="2:32">
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -1862,8 +1913,8 @@
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="2:32">
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -1871,8 +1922,8 @@
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="10:16">
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -1886,20 +1937,21 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B5:F5"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B5:F5"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L9:P9"/>
@@ -1916,7 +1968,6 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="T16:X16"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="R17:S17"/>
@@ -1959,4 +2010,1263 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7F0438-C3AD-4BC2-BBB7-C9368D587581}">
+  <dimension ref="B3:AF33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="33" width="5" style="18" customWidth="1"/>
+    <col min="34" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:32" ht="19.5" thickBot="1"/>
+    <row r="4" spans="2:32">
+      <c r="B4" s="2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" ht="19.5" thickBot="1">
+      <c r="B5" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="8" spans="2:32" ht="19.5" thickBot="1"/>
+    <row r="9" spans="2:32">
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="24"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="24"/>
+    </row>
+    <row r="10" spans="2:32">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="21">
+        <v>2</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="21">
+        <v>4</v>
+      </c>
+      <c r="M10" s="21">
+        <v>3</v>
+      </c>
+      <c r="N10" s="21">
+        <v>2</v>
+      </c>
+      <c r="O10" s="21">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="R10" s="25"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="21">
+        <v>4</v>
+      </c>
+      <c r="U10" s="21">
+        <v>3</v>
+      </c>
+      <c r="V10" s="21">
+        <v>2</v>
+      </c>
+      <c r="W10" s="21">
+        <v>1</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="21">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="21">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="21">
+        <v>2</v>
+      </c>
+      <c r="AE10" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32">
+      <c r="B11" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="21">
+        <v>0</v>
+      </c>
+      <c r="E11" s="21">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="J11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21">
+        <v>0</v>
+      </c>
+      <c r="N11" s="21">
+        <v>0</v>
+      </c>
+      <c r="O11" s="21">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="26"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21">
+        <v>0</v>
+      </c>
+      <c r="V11" s="21">
+        <v>0</v>
+      </c>
+      <c r="W11" s="21">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA11" s="26"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32">
+      <c r="B12" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="21">
+        <v>0</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0</v>
+      </c>
+      <c r="F12" s="21">
+        <v>1</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="J12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21">
+        <v>0</v>
+      </c>
+      <c r="N12" s="21">
+        <v>0</v>
+      </c>
+      <c r="O12" s="21">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="S12" s="26"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21">
+        <v>0</v>
+      </c>
+      <c r="V12" s="21">
+        <v>0</v>
+      </c>
+      <c r="W12" s="21">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32">
+      <c r="B13" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="21">
+        <v>0</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="J13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21">
+        <v>0</v>
+      </c>
+      <c r="N13" s="21">
+        <v>0</v>
+      </c>
+      <c r="O13" s="21">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="26"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21">
+        <v>0</v>
+      </c>
+      <c r="V13" s="21">
+        <v>0</v>
+      </c>
+      <c r="W13" s="21">
+        <v>1</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" ht="19.5" thickBot="1">
+      <c r="B14" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="42"/>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="J14" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
+        <v>0</v>
+      </c>
+      <c r="O14" s="21">
+        <v>1</v>
+      </c>
+      <c r="P14" s="5">
+        <v>1</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="22"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21">
+        <v>0</v>
+      </c>
+      <c r="V14" s="21">
+        <v>0</v>
+      </c>
+      <c r="W14" s="21">
+        <v>1</v>
+      </c>
+      <c r="X14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" ht="19.5" thickBot="1">
+      <c r="B15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="J15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21">
+        <v>0</v>
+      </c>
+      <c r="N15" s="21">
+        <v>1</v>
+      </c>
+      <c r="O15" s="21">
+        <v>0</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0</v>
+      </c>
+      <c r="R15" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="22"/>
+      <c r="T15" s="20">
+        <v>1</v>
+      </c>
+      <c r="U15" s="21">
+        <v>0</v>
+      </c>
+      <c r="V15" s="21">
+        <v>0</v>
+      </c>
+      <c r="W15" s="21">
+        <v>0</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32">
+      <c r="B16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="J16" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="21">
+        <v>1</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0</v>
+      </c>
+      <c r="N16" s="21">
+        <v>0</v>
+      </c>
+      <c r="O16" s="21">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" s="22"/>
+      <c r="T16" s="20">
+        <v>1</v>
+      </c>
+      <c r="U16" s="21">
+        <v>0</v>
+      </c>
+      <c r="V16" s="21">
+        <v>0</v>
+      </c>
+      <c r="W16" s="21">
+        <v>1</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC16" s="23"/>
+      <c r="AD16" s="23"/>
+      <c r="AE16" s="23"/>
+      <c r="AF16" s="24"/>
+    </row>
+    <row r="17" spans="2:32" ht="19.5" thickBot="1">
+      <c r="B17" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="21">
+        <v>1</v>
+      </c>
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="J17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="21">
+        <v>1</v>
+      </c>
+      <c r="M17" s="21">
+        <v>0</v>
+      </c>
+      <c r="N17" s="21">
+        <v>0</v>
+      </c>
+      <c r="O17" s="21">
+        <v>1</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="S17" s="31"/>
+      <c r="T17" s="7">
+        <v>1</v>
+      </c>
+      <c r="U17" s="7">
+        <v>0</v>
+      </c>
+      <c r="V17" s="7">
+        <v>0</v>
+      </c>
+      <c r="W17" s="7">
+        <v>1</v>
+      </c>
+      <c r="X17" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="21">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="21">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="21">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" ht="19.5" thickBot="1">
+      <c r="B18" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="7">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="J18" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="21">
+        <v>1</v>
+      </c>
+      <c r="M18" s="21">
+        <v>0</v>
+      </c>
+      <c r="N18" s="21">
+        <v>0</v>
+      </c>
+      <c r="O18" s="21">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Z18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" ht="19.5" thickBot="1">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="J19" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21">
+        <v>1</v>
+      </c>
+      <c r="N19" s="21">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="24"/>
+      <c r="Z19" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" ht="19.5" thickBot="1">
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="J20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <v>1</v>
+      </c>
+      <c r="R20" s="25"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="21">
+        <v>4</v>
+      </c>
+      <c r="U20" s="21">
+        <v>3</v>
+      </c>
+      <c r="V20" s="21">
+        <v>2</v>
+      </c>
+      <c r="W20" s="21">
+        <v>1</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" ht="19.5" thickBot="1">
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="R21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="26"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21">
+        <v>0</v>
+      </c>
+      <c r="V21" s="21">
+        <v>0</v>
+      </c>
+      <c r="W21" s="21">
+        <v>0</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="24"/>
+    </row>
+    <row r="22" spans="2:32">
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="24"/>
+      <c r="R22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="12"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21">
+        <v>0</v>
+      </c>
+      <c r="V22" s="21">
+        <v>0</v>
+      </c>
+      <c r="W22" s="21">
+        <v>1</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="21">
+        <v>4</v>
+      </c>
+      <c r="AC22" s="21">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="21">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="21">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32">
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="21">
+        <v>4</v>
+      </c>
+      <c r="M23" s="21">
+        <v>3</v>
+      </c>
+      <c r="N23" s="21">
+        <v>2</v>
+      </c>
+      <c r="O23" s="21">
+        <v>1</v>
+      </c>
+      <c r="P23" s="5">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="12"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21">
+        <v>0</v>
+      </c>
+      <c r="V23" s="21">
+        <v>0</v>
+      </c>
+      <c r="W23" s="21">
+        <v>0</v>
+      </c>
+      <c r="X23" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23" s="26"/>
+      <c r="AB23" s="21"/>
+      <c r="AC23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" ht="19.5" thickBot="1">
+      <c r="J24" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21">
+        <v>0</v>
+      </c>
+      <c r="N24" s="21">
+        <v>0</v>
+      </c>
+      <c r="O24" s="21">
+        <v>0</v>
+      </c>
+      <c r="P24" s="5">
+        <v>0</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" s="17"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7">
+        <v>0</v>
+      </c>
+      <c r="V24" s="7">
+        <v>0</v>
+      </c>
+      <c r="W24" s="7">
+        <v>1</v>
+      </c>
+      <c r="X24" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" ht="19.5" thickBot="1">
+      <c r="J25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="26"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21">
+        <v>0</v>
+      </c>
+      <c r="O25" s="21">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5">
+        <v>1</v>
+      </c>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="43"/>
+      <c r="X25" s="43"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
+      <c r="AB25" s="21"/>
+      <c r="AC25" s="21"/>
+      <c r="AD25" s="21"/>
+      <c r="AE25" s="21"/>
+      <c r="AF25" s="21"/>
+    </row>
+    <row r="26" spans="2:32">
+      <c r="J26" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="26"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21">
+        <v>0</v>
+      </c>
+      <c r="O26" s="21">
+        <v>1</v>
+      </c>
+      <c r="P26" s="5">
+        <v>0</v>
+      </c>
+      <c r="R26" s="2"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="24"/>
+    </row>
+    <row r="27" spans="2:32">
+      <c r="J27" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21">
+        <v>0</v>
+      </c>
+      <c r="N27" s="21">
+        <v>1</v>
+      </c>
+      <c r="O27" s="21">
+        <v>0</v>
+      </c>
+      <c r="P27" s="5">
+        <v>0</v>
+      </c>
+      <c r="R27" s="11"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="21">
+        <v>4</v>
+      </c>
+      <c r="U27" s="21">
+        <v>3</v>
+      </c>
+      <c r="V27" s="21">
+        <v>2</v>
+      </c>
+      <c r="W27" s="21">
+        <v>1</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" ht="19.5" thickBot="1">
+      <c r="J28" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="26"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21">
+        <v>1</v>
+      </c>
+      <c r="N28" s="21">
+        <v>0</v>
+      </c>
+      <c r="O28" s="21">
+        <v>0</v>
+      </c>
+      <c r="P28" s="5">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="S28" s="14"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7">
+        <v>0</v>
+      </c>
+      <c r="V28" s="7">
+        <v>0</v>
+      </c>
+      <c r="W28" s="7">
+        <v>0</v>
+      </c>
+      <c r="X28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32">
+      <c r="J29" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21">
+        <v>1</v>
+      </c>
+      <c r="N29" s="21">
+        <v>0</v>
+      </c>
+      <c r="O29" s="21">
+        <v>0</v>
+      </c>
+      <c r="P29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32">
+      <c r="J30" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="21">
+        <v>1</v>
+      </c>
+      <c r="M30" s="21">
+        <v>0</v>
+      </c>
+      <c r="N30" s="21">
+        <v>0</v>
+      </c>
+      <c r="O30" s="21">
+        <v>0</v>
+      </c>
+      <c r="P30" s="5">
+        <v>0</v>
+      </c>
+      <c r="V30" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="W30" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="X30" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32">
+      <c r="J31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="21">
+        <v>1</v>
+      </c>
+      <c r="M31" s="20">
+        <v>0</v>
+      </c>
+      <c r="N31" s="21">
+        <v>1</v>
+      </c>
+      <c r="O31" s="21">
+        <v>0</v>
+      </c>
+      <c r="P31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32">
+      <c r="J32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K32" s="12"/>
+      <c r="L32" s="21">
+        <v>1</v>
+      </c>
+      <c r="M32" s="21">
+        <v>0</v>
+      </c>
+      <c r="N32" s="21">
+        <v>0</v>
+      </c>
+      <c r="O32" s="21">
+        <v>1</v>
+      </c>
+      <c r="P32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="10:16" ht="19.5" thickBot="1">
+      <c r="J33" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="7">
+        <v>1</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7">
+        <v>0</v>
+      </c>
+      <c r="P33" s="8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="62">
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB21:AF21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="T19:X19"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="T25:X25"/>
+    <mergeCell ref="T26:X26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J24:K24"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/sim/SimISA.xlsx
+++ b/sim/SimISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\hn410\2021a\cpuex\sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507933FA-9CDD-43AE-9523-E73881E3F97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A11D722-C62C-47B0-B30F-1186D4195211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29340" yWindow="4140" windowWidth="18405" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27030" yWindow="11400" windowWidth="18405" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1st" sheetId="1" r:id="rId1"/>
@@ -316,10 +316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>slli</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -333,6 +329,10 @@
   </si>
   <si>
     <t>lui</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>feq</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -479,7 +479,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,12 +487,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -512,8 +507,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -836,60 +836,60 @@
       </c>
     </row>
     <row r="5" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="8" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="9" spans="2:32">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
+      <c r="D9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="23" t="s">
+      <c r="T9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="24"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="23"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="23" t="s">
+      <c r="AB9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="24"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="23"/>
     </row>
     <row r="10" spans="2:32">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="4">
         <v>2</v>
       </c>
@@ -900,8 +900,8 @@
         <v>0</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="4">
         <v>4</v>
       </c>
@@ -917,8 +917,8 @@
       <c r="P10" s="5">
         <v>0</v>
       </c>
-      <c r="R10" s="25"/>
-      <c r="S10" s="26"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
       <c r="T10" s="4">
         <v>4</v>
       </c>
@@ -934,8 +934,8 @@
       <c r="X10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="26"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="25"/>
       <c r="AB10" s="4">
         <v>4</v>
       </c>
@@ -953,10 +953,10 @@
       </c>
     </row>
     <row r="11" spans="2:32">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="4">
         <v>0</v>
       </c>
@@ -967,10 +967,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="26"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
         <v>0</v>
@@ -984,10 +984,10 @@
       <c r="P11" s="5">
         <v>0</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="26"/>
+      <c r="S11" s="25"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4">
         <v>0</v>
@@ -1001,10 +1001,10 @@
       <c r="X11" s="5">
         <v>0</v>
       </c>
-      <c r="Z11" s="25" t="s">
+      <c r="Z11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AA11" s="26"/>
+      <c r="AA11" s="25"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4">
         <v>0</v>
@@ -1020,10 +1020,10 @@
       </c>
     </row>
     <row r="12" spans="2:32">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="4">
         <v>0</v>
       </c>
@@ -1034,10 +1034,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="26"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
         <v>0</v>
@@ -1051,10 +1051,10 @@
       <c r="P12" s="5">
         <v>1</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="26"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4">
         <v>0</v>
@@ -1068,10 +1068,10 @@
       <c r="X12" s="5">
         <v>1</v>
       </c>
-      <c r="Z12" s="25" t="s">
+      <c r="Z12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AA12" s="26"/>
+      <c r="AA12" s="25"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4">
         <v>0</v>
@@ -1087,10 +1087,10 @@
       </c>
     </row>
     <row r="13" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="4">
         <v>0</v>
       </c>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="26"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
         <v>0</v>
@@ -1118,10 +1118,10 @@
       <c r="P13" s="5">
         <v>0</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="26"/>
+      <c r="S13" s="25"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4">
         <v>0</v>
@@ -1135,10 +1135,10 @@
       <c r="X13" s="5">
         <v>0</v>
       </c>
-      <c r="Z13" s="27" t="s">
+      <c r="Z13" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="AA13" s="28"/>
+      <c r="AA13" s="42"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7">
         <v>0</v>
@@ -1154,10 +1154,10 @@
       </c>
     </row>
     <row r="14" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="4">
         <v>0</v>
       </c>
@@ -1168,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4">
         <v>0</v>
@@ -1185,10 +1185,10 @@
       <c r="P14" s="5">
         <v>1</v>
       </c>
-      <c r="R14" s="30" t="s">
+      <c r="R14" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="31"/>
+      <c r="S14" s="37"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7">
         <v>0</v>
@@ -1202,8 +1202,8 @@
       <c r="X14" s="8">
         <v>1</v>
       </c>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
+      <c r="Z14" s="40"/>
+      <c r="AA14" s="40"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -1225,10 +1225,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4">
         <v>0</v>
@@ -1242,17 +1242,17 @@
       <c r="P15" s="5">
         <v>0</v>
       </c>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="23" t="s">
+      <c r="AB15" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="23"/>
-      <c r="AF15" s="24"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="23"/>
     </row>
     <row r="16" spans="2:32">
       <c r="B16" s="6" t="s">
@@ -1269,10 +1269,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="40"/>
       <c r="L16" s="4">
         <v>1</v>
       </c>
@@ -1290,15 +1290,15 @@
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="23" t="s">
+      <c r="T16" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="24"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="26"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="23"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="25"/>
       <c r="AB16" s="4">
         <v>4</v>
       </c>
@@ -1316,10 +1316,10 @@
       </c>
     </row>
     <row r="17" spans="2:32">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -1330,10 +1330,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="22"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="4">
         <v>1</v>
       </c>
@@ -1349,8 +1349,8 @@
       <c r="P17" s="5">
         <v>0</v>
       </c>
-      <c r="R17" s="25"/>
-      <c r="S17" s="26"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
       <c r="T17" s="4">
         <v>4</v>
       </c>
@@ -1366,10 +1366,10 @@
       <c r="X17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="25" t="s">
+      <c r="Z17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AA17" s="26"/>
+      <c r="AA17" s="25"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4">
         <v>0</v>
@@ -1385,10 +1385,10 @@
       </c>
     </row>
     <row r="18" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="7">
         <v>1</v>
       </c>
@@ -1399,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="4">
         <v>1</v>
       </c>
@@ -1418,10 +1418,10 @@
       <c r="P18" s="5">
         <v>1</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="S18" s="26"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4">
         <v>0</v>
@@ -1435,10 +1435,10 @@
       <c r="X18" s="5">
         <v>0</v>
       </c>
-      <c r="Z18" s="25" t="s">
+      <c r="Z18" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AA18" s="26"/>
+      <c r="AA18" s="25"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4">
         <v>0</v>
@@ -1454,12 +1454,12 @@
       </c>
     </row>
     <row r="19" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="J19" s="29" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="J19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="22"/>
+      <c r="K19" s="40"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
         <v>1</v>
@@ -1473,10 +1473,10 @@
       <c r="P19" s="5">
         <v>0</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="S19" s="26"/>
+      <c r="S19" s="25"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4">
         <v>0</v>
@@ -1490,10 +1490,10 @@
       <c r="X19" s="5">
         <v>0</v>
       </c>
-      <c r="Z19" s="27" t="s">
+      <c r="Z19" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="AA19" s="28"/>
+      <c r="AA19" s="42"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7">
         <v>0</v>
@@ -1509,12 +1509,12 @@
       </c>
     </row>
     <row r="20" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="J20" s="30" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="J20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="31"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7">
         <v>1</v>
@@ -1528,10 +1528,10 @@
       <c r="P20" s="8">
         <v>1</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="S20" s="26"/>
+      <c r="S20" s="25"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4">
         <v>0</v>
@@ -1547,14 +1547,14 @@
       </c>
     </row>
     <row r="21" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="R21" s="30" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="R21" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="31"/>
+      <c r="S21" s="37"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7">
         <v>0</v>
@@ -1570,28 +1570,28 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="23" t="s">
+      <c r="AB21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="24"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="23"/>
     </row>
     <row r="22" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="26"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="25"/>
       <c r="AB22" s="21">
         <v>4</v>
       </c>
@@ -1609,8 +1609,8 @@
       </c>
     </row>
     <row r="23" spans="2:32">
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
       <c r="L23" s="4">
         <v>4</v>
       </c>
@@ -1628,17 +1628,17 @@
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="23" t="s">
+      <c r="T23" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="24"/>
-      <c r="Z23" s="25" t="s">
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="23"/>
+      <c r="Z23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AA23" s="26"/>
+      <c r="AA23" s="25"/>
       <c r="AB23" s="21"/>
       <c r="AC23" s="21">
         <v>0</v>
@@ -1654,10 +1654,10 @@
       </c>
     </row>
     <row r="24" spans="2:32">
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="26"/>
+      <c r="K24" s="25"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4">
         <v>0</v>
@@ -1671,8 +1671,8 @@
       <c r="P24" s="5">
         <v>0</v>
       </c>
-      <c r="R24" s="25"/>
-      <c r="S24" s="26"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="25"/>
       <c r="T24" s="4">
         <v>4</v>
       </c>
@@ -1688,10 +1688,10 @@
       <c r="X24" s="5">
         <v>0</v>
       </c>
-      <c r="Z24" s="25" t="s">
+      <c r="Z24" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="AA24" s="26"/>
+      <c r="AA24" s="25"/>
       <c r="AB24" s="21"/>
       <c r="AC24" s="21">
         <v>0</v>
@@ -1707,10 +1707,10 @@
       </c>
     </row>
     <row r="25" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="26"/>
+      <c r="K25" s="25"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4">
         <v>0</v>
@@ -1724,10 +1724,10 @@
       <c r="P25" s="5">
         <v>1</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="S25" s="26"/>
+      <c r="S25" s="25"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4">
         <v>0</v>
@@ -1741,10 +1741,10 @@
       <c r="X25" s="5">
         <v>1</v>
       </c>
-      <c r="Z25" s="27" t="s">
+      <c r="Z25" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="AA25" s="28"/>
+      <c r="AA25" s="42"/>
       <c r="AB25" s="7"/>
       <c r="AC25" s="7">
         <v>0</v>
@@ -1760,10 +1760,10 @@
       </c>
     </row>
     <row r="26" spans="2:32">
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="26"/>
+      <c r="K26" s="25"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4">
         <v>0</v>
@@ -1777,10 +1777,10 @@
       <c r="P26" s="5">
         <v>0</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="R26" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="S26" s="26"/>
+      <c r="S26" s="25"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4">
         <v>0</v>
@@ -1796,10 +1796,10 @@
       </c>
     </row>
     <row r="27" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="22"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4">
         <v>0</v>
@@ -1813,10 +1813,10 @@
       <c r="P27" s="5">
         <v>0</v>
       </c>
-      <c r="R27" s="27" t="s">
+      <c r="R27" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="S27" s="28"/>
+      <c r="S27" s="42"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7">
         <v>0</v>
@@ -1832,10 +1832,10 @@
       </c>
     </row>
     <row r="28" spans="2:32">
-      <c r="J28" s="29" t="s">
+      <c r="J28" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="4">
         <v>1</v>
       </c>
@@ -1853,10 +1853,10 @@
       </c>
     </row>
     <row r="29" spans="2:32">
-      <c r="J29" s="29" t="s">
+      <c r="J29" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="22"/>
+      <c r="K29" s="40"/>
       <c r="L29" s="4">
         <v>1</v>
       </c>
@@ -1883,10 +1883,10 @@
       </c>
     </row>
     <row r="30" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J30" s="30" t="s">
+      <c r="J30" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="K30" s="31"/>
+      <c r="K30" s="37"/>
       <c r="L30" s="7">
         <v>1</v>
       </c>
@@ -1904,8 +1904,8 @@
       </c>
     </row>
     <row r="31" spans="2:32">
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -1913,8 +1913,8 @@
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="2:32">
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -1922,8 +1922,8 @@
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="10:16">
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -1932,26 +1932,43 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="AB21:AF21"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L9:P9"/>
@@ -1968,43 +1985,26 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="AB21:AF21"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="T16:X16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2016,8 +2016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7F0438-C3AD-4BC2-BBB7-C9368D587581}">
   <dimension ref="B3:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2055,60 +2055,60 @@
       </c>
     </row>
     <row r="5" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="8" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="9" spans="2:32">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
+      <c r="D9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="23" t="s">
+      <c r="T9" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="24"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="23"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="23" t="s">
+      <c r="AB9" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="24"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="23"/>
     </row>
     <row r="10" spans="2:32">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="21">
         <v>2</v>
       </c>
@@ -2119,8 +2119,8 @@
         <v>0</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
       <c r="L10" s="21">
         <v>4</v>
       </c>
@@ -2136,8 +2136,8 @@
       <c r="P10" s="5">
         <v>0</v>
       </c>
-      <c r="R10" s="25"/>
-      <c r="S10" s="26"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="25"/>
       <c r="T10" s="21">
         <v>4</v>
       </c>
@@ -2153,8 +2153,8 @@
       <c r="X10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="26"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="25"/>
       <c r="AB10" s="21">
         <v>4</v>
       </c>
@@ -2172,10 +2172,10 @@
       </c>
     </row>
     <row r="11" spans="2:32">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="40"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="21">
         <v>0</v>
       </c>
@@ -2186,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="26"/>
+      <c r="K11" s="25"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21">
         <v>0</v>
@@ -2203,10 +2203,10 @@
       <c r="P11" s="5">
         <v>0</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="26"/>
+      <c r="S11" s="25"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21">
         <v>0</v>
@@ -2220,10 +2220,10 @@
       <c r="X11" s="5">
         <v>0</v>
       </c>
-      <c r="Z11" s="25" t="s">
+      <c r="Z11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AA11" s="26"/>
+      <c r="AA11" s="25"/>
       <c r="AB11" s="21"/>
       <c r="AC11" s="21">
         <v>0</v>
@@ -2239,10 +2239,10 @@
       </c>
     </row>
     <row r="12" spans="2:32">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="40"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="21">
         <v>0</v>
       </c>
@@ -2253,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="J12" s="25" t="s">
+      <c r="J12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="26"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21">
         <v>0</v>
@@ -2270,10 +2270,10 @@
       <c r="P12" s="5">
         <v>1</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="S12" s="26"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21">
         <v>0</v>
@@ -2287,10 +2287,10 @@
       <c r="X12" s="5">
         <v>1</v>
       </c>
-      <c r="Z12" s="25" t="s">
+      <c r="Z12" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="AA12" s="26"/>
+      <c r="AA12" s="25"/>
       <c r="AB12" s="21"/>
       <c r="AC12" s="21">
         <v>1</v>
@@ -2306,10 +2306,10 @@
       </c>
     </row>
     <row r="13" spans="2:32">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="40"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="21">
         <v>0</v>
       </c>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="26"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21">
         <v>0</v>
@@ -2337,10 +2337,10 @@
       <c r="P13" s="5">
         <v>0</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="26"/>
+      <c r="S13" s="25"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21">
         <v>0</v>
@@ -2354,10 +2354,10 @@
       <c r="X13" s="5">
         <v>0</v>
       </c>
-      <c r="Z13" s="25" t="s">
+      <c r="Z13" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AA13" s="26"/>
+      <c r="AA13" s="25"/>
       <c r="AB13" s="21"/>
       <c r="AC13" s="21">
         <v>0</v>
@@ -2373,10 +2373,10 @@
       </c>
     </row>
     <row r="14" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="42"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="21">
         <v>0</v>
       </c>
@@ -2387,10 +2387,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="40"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21">
         <v>0</v>
@@ -2404,10 +2404,10 @@
       <c r="P14" s="5">
         <v>1</v>
       </c>
-      <c r="R14" s="29" t="s">
+      <c r="R14" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="22"/>
+      <c r="S14" s="40"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="J15" s="29" t="s">
+      <c r="J15" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="40"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21">
         <v>0</v>
@@ -2471,10 +2471,10 @@
       <c r="P15" s="5">
         <v>0</v>
       </c>
-      <c r="R15" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15" s="22"/>
+      <c r="R15" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="S15" s="40"/>
       <c r="T15" s="20">
         <v>1</v>
       </c>
@@ -2506,10 +2506,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="40"/>
       <c r="L16" s="21">
         <v>1</v>
       </c>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="20"/>
-      <c r="R16" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="S16" s="22"/>
+      <c r="R16" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" s="40"/>
       <c r="T16" s="20">
         <v>1</v>
       </c>
@@ -2547,19 +2547,19 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="3"/>
-      <c r="AB16" s="23" t="s">
+      <c r="AB16" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AC16" s="23"/>
-      <c r="AD16" s="23"/>
-      <c r="AE16" s="23"/>
-      <c r="AF16" s="24"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="23"/>
     </row>
     <row r="17" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="42"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="21">
         <v>1</v>
       </c>
@@ -2570,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="22"/>
+      <c r="K17" s="40"/>
       <c r="L17" s="21">
         <v>1</v>
       </c>
@@ -2589,10 +2589,10 @@
       <c r="P17" s="5">
         <v>0</v>
       </c>
-      <c r="R17" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="S17" s="31"/>
+      <c r="R17" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="S17" s="37"/>
       <c r="T17" s="7">
         <v>1</v>
       </c>
@@ -2627,10 +2627,10 @@
       </c>
     </row>
     <row r="18" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="35"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="7">
         <v>1</v>
       </c>
@@ -2641,10 +2641,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="40"/>
       <c r="L18" s="21">
         <v>1</v>
       </c>
@@ -2660,8 +2660,8 @@
       <c r="P18" s="5">
         <v>1</v>
       </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
@@ -2686,12 +2686,12 @@
       </c>
     </row>
     <row r="19" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="J19" s="29" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="J19" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="22"/>
+      <c r="K19" s="40"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21">
         <v>1</v>
@@ -2707,13 +2707,13 @@
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
-      <c r="T19" s="23" t="s">
+      <c r="T19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="24"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="23"/>
       <c r="Z19" s="13" t="s">
         <v>38</v>
       </c>
@@ -2733,12 +2733,12 @@
       </c>
     </row>
     <row r="20" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="J20" s="30" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="J20" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="31"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7">
         <v>1</v>
@@ -2752,8 +2752,8 @@
       <c r="P20" s="8">
         <v>1</v>
       </c>
-      <c r="R20" s="25"/>
-      <c r="S20" s="26"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="25"/>
       <c r="T20" s="21">
         <v>4</v>
       </c>
@@ -2771,14 +2771,14 @@
       </c>
     </row>
     <row r="21" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="R21" s="25" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="R21" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="S21" s="26"/>
+      <c r="S21" s="25"/>
       <c r="T21" s="21"/>
       <c r="U21" s="21">
         <v>0</v>
@@ -2794,26 +2794,26 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="23" t="s">
+      <c r="AB21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AC21" s="23"/>
-      <c r="AD21" s="23"/>
-      <c r="AE21" s="23"/>
-      <c r="AF21" s="24"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="23"/>
     </row>
     <row r="22" spans="2:32">
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23"/>
       <c r="R22" s="11" t="s">
         <v>31</v>
       </c>
@@ -2831,8 +2831,8 @@
       <c r="X22" s="5">
         <v>0</v>
       </c>
-      <c r="Z22" s="25"/>
-      <c r="AA22" s="26"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="25"/>
       <c r="AB22" s="21">
         <v>4</v>
       </c>
@@ -2850,8 +2850,8 @@
       </c>
     </row>
     <row r="23" spans="2:32">
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
       <c r="L23" s="21">
         <v>4</v>
       </c>
@@ -2884,10 +2884,10 @@
       <c r="X23" s="5">
         <v>1</v>
       </c>
-      <c r="Z23" s="25" t="s">
+      <c r="Z23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AA23" s="26"/>
+      <c r="AA23" s="25"/>
       <c r="AB23" s="21"/>
       <c r="AC23" s="21">
         <v>0</v>
@@ -2903,10 +2903,10 @@
       </c>
     </row>
     <row r="24" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K24" s="26"/>
+      <c r="K24" s="25"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21">
         <v>0</v>
@@ -2937,10 +2937,10 @@
       <c r="X24" s="8">
         <v>1</v>
       </c>
-      <c r="Z24" s="27" t="s">
+      <c r="Z24" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="AA24" s="28"/>
+      <c r="AA24" s="42"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7">
         <v>0</v>
@@ -2956,10 +2956,10 @@
       </c>
     </row>
     <row r="25" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="26"/>
+      <c r="K25" s="25"/>
       <c r="L25" s="21"/>
       <c r="M25" s="21">
         <v>0</v>
@@ -2980,8 +2980,8 @@
       <c r="V25" s="43"/>
       <c r="W25" s="43"/>
       <c r="X25" s="43"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="26"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
       <c r="AB25" s="21"/>
       <c r="AC25" s="21"/>
       <c r="AD25" s="21"/>
@@ -2989,10 +2989,10 @@
       <c r="AF25" s="21"/>
     </row>
     <row r="26" spans="2:32">
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="26"/>
+      <c r="K26" s="25"/>
       <c r="L26" s="21"/>
       <c r="M26" s="21">
         <v>0</v>
@@ -3008,19 +3008,19 @@
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="3"/>
-      <c r="T26" s="23" t="s">
+      <c r="T26" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="24"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+      <c r="X26" s="23"/>
     </row>
     <row r="27" spans="2:32">
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="22"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="21"/>
       <c r="M27" s="21">
         <v>0</v>
@@ -3053,10 +3053,10 @@
       </c>
     </row>
     <row r="28" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J28" s="25" t="s">
+      <c r="J28" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="26"/>
+      <c r="K28" s="25"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21">
         <v>1</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="7"/>
@@ -3089,10 +3089,10 @@
       </c>
     </row>
     <row r="29" spans="2:32">
-      <c r="J29" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29" s="22"/>
+      <c r="J29" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="40"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21">
         <v>1</v>
@@ -3108,10 +3108,10 @@
       </c>
     </row>
     <row r="30" spans="2:32">
-      <c r="J30" s="29" t="s">
+      <c r="J30" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="22"/>
+      <c r="K30" s="40"/>
       <c r="L30" s="21">
         <v>1</v>
       </c>
@@ -3202,58 +3202,6 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="AB16:AF16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="AB21:AF21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="Z23:AA23"/>
     <mergeCell ref="T19:X19"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="J30:K30"/>
@@ -3264,6 +3212,58 @@
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J24:K24"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="AB21:AF21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="AB16:AF16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="T9:X9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sim/SimISA.xlsx
+++ b/sim/SimISA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\hn410\2021a\cpuex\fib\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\hn410\2021a\cpuex\sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8DBCDA-E0A0-4845-B70F-64F54980C321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6DD7FC-1DD8-4D10-B1D9-B7847413674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="585" windowWidth="18405" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11145" yWindow="900" windowWidth="18405" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>命令種別</t>
     <rPh sb="0" eb="2">
@@ -307,6 +307,10 @@
   </si>
   <si>
     <t>fle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lui</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -338,7 +342,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -426,11 +430,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -441,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -450,13 +491,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -472,10 +511,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -758,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26:S26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -795,18 +840,18 @@
       </c>
     </row>
     <row r="5" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
     </row>
     <row r="8" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="9" spans="2:32">
@@ -847,8 +892,8 @@
       <c r="AF9" s="12"/>
     </row>
     <row r="10" spans="2:32">
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="4">
         <v>2</v>
       </c>
@@ -912,10 +957,10 @@
       </c>
     </row>
     <row r="11" spans="2:32">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="4">
         <v>0</v>
       </c>
@@ -979,10 +1024,10 @@
       </c>
     </row>
     <row r="12" spans="2:32">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="19"/>
       <c r="D12" s="4">
         <v>0</v>
       </c>
@@ -1046,10 +1091,10 @@
       </c>
     </row>
     <row r="13" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="19"/>
       <c r="D13" s="4">
         <v>0</v>
       </c>
@@ -1094,10 +1139,10 @@
       <c r="X13" s="5">
         <v>0</v>
       </c>
-      <c r="Z13" s="15" t="s">
+      <c r="Z13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="AA13" s="16"/>
+      <c r="AA13" s="31"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7">
         <v>0</v>
@@ -1113,10 +1158,10 @@
       </c>
     </row>
     <row r="14" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="16"/>
       <c r="D14" s="4">
         <v>0</v>
       </c>
@@ -1127,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4">
         <v>0</v>
@@ -1144,10 +1189,10 @@
       <c r="P14" s="5">
         <v>1</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="19"/>
+      <c r="S14" s="26"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7">
         <v>0</v>
@@ -1161,8 +1206,8 @@
       <c r="X14" s="8">
         <v>1</v>
       </c>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -1184,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="10"/>
+      <c r="K15" s="29"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4">
         <v>0</v>
@@ -1201,8 +1246,8 @@
       <c r="P15" s="5">
         <v>0</v>
       </c>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="11" t="s">
@@ -1228,10 +1273,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="10"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="4">
         <v>1</v>
       </c>
@@ -1275,10 +1320,10 @@
       </c>
     </row>
     <row r="17" spans="2:32">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="28"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -1289,10 +1334,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="10"/>
+      <c r="K17" s="29"/>
       <c r="L17" s="4">
         <v>1</v>
       </c>
@@ -1344,10 +1389,10 @@
       </c>
     </row>
     <row r="18" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="7">
         <v>1</v>
       </c>
@@ -1358,10 +1403,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="10"/>
+      <c r="K18" s="29"/>
       <c r="L18" s="4">
         <v>1</v>
       </c>
@@ -1413,12 +1458,12 @@
       </c>
     </row>
     <row r="19" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="J19" s="17" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="J19" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="29"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
         <v>1</v>
@@ -1449,10 +1494,10 @@
       <c r="X19" s="5">
         <v>0</v>
       </c>
-      <c r="Z19" s="15" t="s">
+      <c r="Z19" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AA19" s="16"/>
+      <c r="AA19" s="31"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7">
         <v>0</v>
@@ -1468,12 +1513,12 @@
       </c>
     </row>
     <row r="20" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="J20" s="18" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="J20" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="19"/>
+      <c r="K20" s="26"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7">
         <v>1</v>
@@ -1506,14 +1551,14 @@
       </c>
     </row>
     <row r="21" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="R21" s="18" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="R21" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="19"/>
+      <c r="S21" s="26"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7">
         <v>0</v>
@@ -1538,8 +1583,8 @@
       <c r="AF21" s="12"/>
     </row>
     <row r="22" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="11" t="s">
@@ -1647,10 +1692,10 @@
       <c r="X24" s="5">
         <v>0</v>
       </c>
-      <c r="Z24" s="15" t="s">
+      <c r="Z24" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AA24" s="16"/>
+      <c r="AA24" s="31"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7">
         <v>0</v>
@@ -1745,10 +1790,10 @@
       </c>
     </row>
     <row r="27" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="10"/>
+      <c r="K27" s="29"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4">
         <v>0</v>
@@ -1762,29 +1807,29 @@
       <c r="P27" s="5">
         <v>0</v>
       </c>
-      <c r="R27" s="15" t="s">
+      <c r="R27" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="S27" s="16"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7">
-        <v>0</v>
-      </c>
-      <c r="V27" s="7">
-        <v>0</v>
-      </c>
-      <c r="W27" s="7">
-        <v>0</v>
-      </c>
-      <c r="X27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:32">
-      <c r="J28" s="17" t="s">
+      <c r="S27" s="14"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <v>0</v>
+      </c>
+      <c r="W27" s="10">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" ht="19.5" thickBot="1">
+      <c r="J28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="10"/>
+      <c r="K28" s="29"/>
       <c r="L28" s="4">
         <v>1</v>
       </c>
@@ -1800,12 +1845,25 @@
       <c r="P28" s="5">
         <v>0</v>
       </c>
+      <c r="R28" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33">
+        <v>1</v>
+      </c>
+      <c r="X28" s="34">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="2:32">
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="10"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="4">
         <v>1</v>
       </c>
@@ -1832,10 +1890,10 @@
       </c>
     </row>
     <row r="30" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J30" s="18" t="s">
+      <c r="J30" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="19"/>
+      <c r="K30" s="26"/>
       <c r="L30" s="7">
         <v>1</v>
       </c>
@@ -1853,8 +1911,8 @@
       </c>
     </row>
     <row r="31" spans="2:32">
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -1862,8 +1920,8 @@
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="2:32">
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -1871,8 +1929,8 @@
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="10:16">
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -1881,25 +1939,43 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="AB21:AF21"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L9:P9"/>
@@ -1916,44 +1992,26 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="T16:X16"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="AB21:AF21"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sim/SimISA.xlsx
+++ b/sim/SimISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\hn410\2021a\cpuex\sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6DD7FC-1DD8-4D10-B1D9-B7847413674C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A987EE8-0A35-4E28-B4DE-EE770215A047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11145" yWindow="900" windowWidth="18405" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29850" yWindow="1215" windowWidth="18405" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>命令種別</t>
     <rPh sb="0" eb="2">
@@ -311,6 +311,10 @@
   </si>
   <si>
     <t>lui</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nop</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -471,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -483,6 +487,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -491,11 +500,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -511,16 +522,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -803,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -840,60 +846,60 @@
       </c>
     </row>
     <row r="5" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="8" spans="2:32" ht="19.5" thickBot="1"/>
     <row r="9" spans="2:32">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="12"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="17"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="11" t="s">
+      <c r="T9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="12"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="17"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="3"/>
-      <c r="AB9" s="11" t="s">
+      <c r="AB9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="12"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="17"/>
     </row>
     <row r="10" spans="2:32">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="4">
         <v>2</v>
       </c>
@@ -904,8 +910,8 @@
         <v>0</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="4">
         <v>4</v>
       </c>
@@ -921,8 +927,8 @@
       <c r="P10" s="5">
         <v>0</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="19"/>
       <c r="T10" s="4">
         <v>4</v>
       </c>
@@ -938,8 +944,8 @@
       <c r="X10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="14"/>
+      <c r="Z10" s="18"/>
+      <c r="AA10" s="19"/>
       <c r="AB10" s="4">
         <v>4</v>
       </c>
@@ -957,10 +963,10 @@
       </c>
     </row>
     <row r="11" spans="2:32">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="4">
         <v>0</v>
       </c>
@@ -971,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4">
         <v>0</v>
@@ -988,10 +994,10 @@
       <c r="P11" s="5">
         <v>0</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="S11" s="14"/>
+      <c r="S11" s="19"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4">
         <v>0</v>
@@ -1005,10 +1011,10 @@
       <c r="X11" s="5">
         <v>0</v>
       </c>
-      <c r="Z11" s="13" t="s">
+      <c r="Z11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AA11" s="14"/>
+      <c r="AA11" s="19"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4">
         <v>0</v>
@@ -1024,10 +1030,10 @@
       </c>
     </row>
     <row r="12" spans="2:32">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="19"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="4">
         <v>0</v>
       </c>
@@ -1038,10 +1044,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="14"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4">
         <v>0</v>
@@ -1055,10 +1061,10 @@
       <c r="P12" s="5">
         <v>1</v>
       </c>
-      <c r="R12" s="13" t="s">
+      <c r="R12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="S12" s="14"/>
+      <c r="S12" s="19"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4">
         <v>0</v>
@@ -1072,10 +1078,10 @@
       <c r="X12" s="5">
         <v>1</v>
       </c>
-      <c r="Z12" s="13" t="s">
+      <c r="Z12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AA12" s="14"/>
+      <c r="AA12" s="19"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4">
         <v>0</v>
@@ -1091,10 +1097,10 @@
       </c>
     </row>
     <row r="13" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="19"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="4">
         <v>0</v>
       </c>
@@ -1105,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
         <v>0</v>
@@ -1122,10 +1128,10 @@
       <c r="P13" s="5">
         <v>0</v>
       </c>
-      <c r="R13" s="13" t="s">
+      <c r="R13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="S13" s="14"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4">
         <v>0</v>
@@ -1139,10 +1145,10 @@
       <c r="X13" s="5">
         <v>0</v>
       </c>
-      <c r="Z13" s="30" t="s">
+      <c r="Z13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AA13" s="31"/>
+      <c r="AA13" s="24"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7">
         <v>0</v>
@@ -1158,10 +1164,10 @@
       </c>
     </row>
     <row r="14" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="4">
         <v>0</v>
       </c>
@@ -1172,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="29"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4">
         <v>0</v>
@@ -1189,10 +1195,10 @@
       <c r="P14" s="5">
         <v>1</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="26"/>
+      <c r="S14" s="22"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7">
         <v>0</v>
@@ -1206,8 +1212,8 @@
       <c r="X14" s="8">
         <v>1</v>
       </c>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -1229,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="J15" s="28" t="s">
+      <c r="J15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="29"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4">
         <v>0</v>
@@ -1246,17 +1252,17 @@
       <c r="P15" s="5">
         <v>0</v>
       </c>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="3"/>
-      <c r="AB15" s="11" t="s">
+      <c r="AB15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="12"/>
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="17"/>
     </row>
     <row r="16" spans="2:32">
       <c r="B16" s="6" t="s">
@@ -1273,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="J16" s="28" t="s">
+      <c r="J16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="29"/>
+      <c r="K16" s="15"/>
       <c r="L16" s="4">
         <v>1</v>
       </c>
@@ -1294,15 +1300,15 @@
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="12"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="14"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="17"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="19"/>
       <c r="AB16" s="4">
         <v>4</v>
       </c>
@@ -1320,10 +1326,10 @@
       </c>
     </row>
     <row r="17" spans="2:32">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="16"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -1334,10 +1340,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="29"/>
+      <c r="K17" s="15"/>
       <c r="L17" s="4">
         <v>1</v>
       </c>
@@ -1353,8 +1359,8 @@
       <c r="P17" s="5">
         <v>0</v>
       </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="19"/>
       <c r="T17" s="4">
         <v>4</v>
       </c>
@@ -1370,10 +1376,10 @@
       <c r="X17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="13" t="s">
+      <c r="Z17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" s="14"/>
+      <c r="AA17" s="19"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4">
         <v>0</v>
@@ -1389,10 +1395,10 @@
       </c>
     </row>
     <row r="18" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="21"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="7">
         <v>1</v>
       </c>
@@ -1403,10 +1409,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="29"/>
+      <c r="K18" s="15"/>
       <c r="L18" s="4">
         <v>1</v>
       </c>
@@ -1422,10 +1428,10 @@
       <c r="P18" s="5">
         <v>1</v>
       </c>
-      <c r="R18" s="13" t="s">
+      <c r="R18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S18" s="14"/>
+      <c r="S18" s="19"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4">
         <v>0</v>
@@ -1439,10 +1445,10 @@
       <c r="X18" s="5">
         <v>0</v>
       </c>
-      <c r="Z18" s="13" t="s">
+      <c r="Z18" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AA18" s="14"/>
+      <c r="AA18" s="19"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4">
         <v>0</v>
@@ -1458,12 +1464,12 @@
       </c>
     </row>
     <row r="19" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="J19" s="28" t="s">
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="J19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="29"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
         <v>1</v>
@@ -1477,10 +1483,10 @@
       <c r="P19" s="5">
         <v>0</v>
       </c>
-      <c r="R19" s="13" t="s">
+      <c r="R19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="S19" s="14"/>
+      <c r="S19" s="19"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4">
         <v>0</v>
@@ -1494,10 +1500,10 @@
       <c r="X19" s="5">
         <v>0</v>
       </c>
-      <c r="Z19" s="30" t="s">
+      <c r="Z19" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AA19" s="31"/>
+      <c r="AA19" s="24"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7">
         <v>0</v>
@@ -1513,12 +1519,12 @@
       </c>
     </row>
     <row r="20" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="J20" s="25" t="s">
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="J20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="26"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7">
         <v>1</v>
@@ -1532,10 +1538,10 @@
       <c r="P20" s="8">
         <v>1</v>
       </c>
-      <c r="R20" s="13" t="s">
+      <c r="R20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="S20" s="14"/>
+      <c r="S20" s="19"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4">
         <v>0</v>
@@ -1551,14 +1557,14 @@
       </c>
     </row>
     <row r="21" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="R21" s="25" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="R21" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="26"/>
+      <c r="S21" s="22"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7">
         <v>0</v>
@@ -1574,28 +1580,28 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="3"/>
-      <c r="AB21" s="11" t="s">
+      <c r="AB21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="12"/>
+      <c r="AC21" s="16"/>
+      <c r="AD21" s="16"/>
+      <c r="AE21" s="16"/>
+      <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="12"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="14"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="17"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="19"/>
       <c r="AB22" s="4">
         <v>4</v>
       </c>
@@ -1613,8 +1619,8 @@
       </c>
     </row>
     <row r="23" spans="2:32">
-      <c r="J23" s="13"/>
-      <c r="K23" s="14"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="4">
         <v>4</v>
       </c>
@@ -1632,17 +1638,17 @@
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="12"/>
-      <c r="Z23" s="13" t="s">
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="17"/>
+      <c r="Z23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AA23" s="14"/>
+      <c r="AA23" s="19"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4">
         <v>0</v>
@@ -1658,10 +1664,10 @@
       </c>
     </row>
     <row r="24" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J24" s="13" t="s">
+      <c r="J24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="14"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4">
         <v>0</v>
@@ -1675,8 +1681,8 @@
       <c r="P24" s="5">
         <v>0</v>
       </c>
-      <c r="R24" s="13"/>
-      <c r="S24" s="14"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="19"/>
       <c r="T24" s="4">
         <v>4</v>
       </c>
@@ -1692,10 +1698,10 @@
       <c r="X24" s="5">
         <v>0</v>
       </c>
-      <c r="Z24" s="30" t="s">
+      <c r="Z24" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="AA24" s="31"/>
+      <c r="AA24" s="24"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7">
         <v>0</v>
@@ -1711,10 +1717,10 @@
       </c>
     </row>
     <row r="25" spans="2:32">
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="14"/>
+      <c r="K25" s="19"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4">
         <v>0</v>
@@ -1728,10 +1734,10 @@
       <c r="P25" s="5">
         <v>1</v>
       </c>
-      <c r="R25" s="13" t="s">
+      <c r="R25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="S25" s="14"/>
+      <c r="S25" s="19"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4">
         <v>0</v>
@@ -1745,8 +1751,8 @@
       <c r="X25" s="5">
         <v>1</v>
       </c>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -1754,10 +1760,10 @@
       <c r="AF25" s="4"/>
     </row>
     <row r="26" spans="2:32">
-      <c r="J26" s="13" t="s">
+      <c r="J26" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="14"/>
+      <c r="K26" s="19"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4">
         <v>0</v>
@@ -1771,10 +1777,10 @@
       <c r="P26" s="5">
         <v>0</v>
       </c>
-      <c r="R26" s="13" t="s">
+      <c r="R26" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="S26" s="14"/>
+      <c r="S26" s="19"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4">
         <v>0</v>
@@ -1790,10 +1796,10 @@
       </c>
     </row>
     <row r="27" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="29"/>
+      <c r="K27" s="15"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4">
         <v>0</v>
@@ -1807,10 +1813,10 @@
       <c r="P27" s="5">
         <v>0</v>
       </c>
-      <c r="R27" s="13" t="s">
+      <c r="R27" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="S27" s="14"/>
+      <c r="S27" s="19"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10">
         <v>0</v>
@@ -1826,10 +1832,10 @@
       </c>
     </row>
     <row r="28" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J28" s="28" t="s">
+      <c r="J28" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="29"/>
+      <c r="K28" s="15"/>
       <c r="L28" s="4">
         <v>1</v>
       </c>
@@ -1845,25 +1851,25 @@
       <c r="P28" s="5">
         <v>0</v>
       </c>
-      <c r="R28" s="32" t="s">
+      <c r="R28" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33">
-        <v>1</v>
-      </c>
-      <c r="X28" s="34">
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13">
+        <v>1</v>
+      </c>
+      <c r="X28" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:32">
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="29"/>
+      <c r="K29" s="15"/>
       <c r="L29" s="4">
         <v>1</v>
       </c>
@@ -1879,40 +1885,58 @@
       <c r="P29" s="5">
         <v>0</v>
       </c>
-      <c r="V29" t="s">
+      <c r="R29" t="s">
+        <v>59</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29" s="11">
+        <v>1</v>
+      </c>
+      <c r="V29" s="11">
+        <v>1</v>
+      </c>
+      <c r="W29" s="11">
+        <v>1</v>
+      </c>
+      <c r="X29" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" ht="19.5" thickBot="1">
+      <c r="J30" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="7">
+        <v>1</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7">
+        <v>0</v>
+      </c>
+      <c r="P30" s="8">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
         <v>56</v>
       </c>
-      <c r="W29" t="s">
+      <c r="W30" t="s">
         <v>55</v>
       </c>
-      <c r="X29" t="s">
+      <c r="X30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J30" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="7">
-        <v>1</v>
-      </c>
-      <c r="M30" s="7">
-        <v>1</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-      <c r="P30" s="8">
-        <v>1</v>
-      </c>
-    </row>
     <row r="31" spans="2:32">
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -1920,8 +1944,8 @@
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="2:32">
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -1929,8 +1953,8 @@
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="10:16">
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -1939,6 +1963,63 @@
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="T16:X16"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="AB21:AF21"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="L22:P22"/>
     <mergeCell ref="J32:K32"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="T23:X23"/>
@@ -1955,63 +2036,6 @@
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="J25:K25"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="AB21:AF21"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="T16:X16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sim/SimISA.xlsx
+++ b/sim/SimISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\hn410\2021a\cpuex\sim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A987EE8-0A35-4E28-B4DE-EE770215A047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817D1E6C-BD29-4487-848A-68AE12291EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29850" yWindow="1215" windowWidth="18405" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12570" yWindow="1470" windowWidth="18405" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,12 +500,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -524,9 +520,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -809,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -846,20 +846,39 @@
       </c>
     </row>
     <row r="5" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="8" spans="2:32" ht="19.5" thickBot="1"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26"/>
+    </row>
+    <row r="8" spans="2:32" ht="19.5" thickBot="1">
+      <c r="R8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8" s="11">
+        <v>1</v>
+      </c>
+      <c r="V8" s="11">
+        <v>1</v>
+      </c>
+      <c r="W8" s="11">
+        <v>1</v>
+      </c>
+      <c r="X8" s="15">
+        <v>1</v>
+      </c>
+    </row>
     <row r="9" spans="2:32">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
@@ -898,8 +917,8 @@
       <c r="AF9" s="17"/>
     </row>
     <row r="10" spans="2:32">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="4">
         <v>2</v>
       </c>
@@ -963,10 +982,10 @@
       </c>
     </row>
     <row r="11" spans="2:32">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="33"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="4">
         <v>0</v>
       </c>
@@ -1030,10 +1049,10 @@
       </c>
     </row>
     <row r="12" spans="2:32">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="33"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="4">
         <v>0</v>
       </c>
@@ -1097,10 +1116,10 @@
       </c>
     </row>
     <row r="13" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="33"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="4">
         <v>0</v>
       </c>
@@ -1145,10 +1164,10 @@
       <c r="X13" s="5">
         <v>0</v>
       </c>
-      <c r="Z13" s="23" t="s">
+      <c r="Z13" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="AA13" s="24"/>
+      <c r="AA13" s="36"/>
       <c r="AB13" s="7"/>
       <c r="AC13" s="7">
         <v>0</v>
@@ -1164,10 +1183,10 @@
       </c>
     </row>
     <row r="14" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="4">
         <v>0</v>
       </c>
@@ -1178,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4">
         <v>0</v>
@@ -1195,10 +1214,10 @@
       <c r="P14" s="5">
         <v>1</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="R14" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="22"/>
+      <c r="S14" s="31"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7">
         <v>0</v>
@@ -1212,8 +1231,8 @@
       <c r="X14" s="8">
         <v>1</v>
       </c>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -1235,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4">
         <v>0</v>
@@ -1252,8 +1271,8 @@
       <c r="P15" s="5">
         <v>0</v>
       </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="3"/>
       <c r="AB15" s="16" t="s">
@@ -1279,10 +1298,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="15"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="4">
         <v>1</v>
       </c>
@@ -1326,10 +1345,10 @@
       </c>
     </row>
     <row r="17" spans="2:32">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="4">
         <v>1</v>
       </c>
@@ -1340,10 +1359,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="15"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="4">
         <v>1</v>
       </c>
@@ -1395,10 +1414,10 @@
       </c>
     </row>
     <row r="18" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="28"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="7">
         <v>1</v>
       </c>
@@ -1409,10 +1428,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="8"/>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="15"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="4">
         <v>1</v>
       </c>
@@ -1464,12 +1483,12 @@
       </c>
     </row>
     <row r="19" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="J19" s="20" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="J19" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="15"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
         <v>1</v>
@@ -1500,10 +1519,10 @@
       <c r="X19" s="5">
         <v>0</v>
       </c>
-      <c r="Z19" s="23" t="s">
+      <c r="Z19" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AA19" s="24"/>
+      <c r="AA19" s="36"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7">
         <v>0</v>
@@ -1519,12 +1538,12 @@
       </c>
     </row>
     <row r="20" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="J20" s="21" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="J20" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="22"/>
+      <c r="K20" s="31"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7">
         <v>1</v>
@@ -1557,14 +1576,14 @@
       </c>
     </row>
     <row r="21" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="R21" s="21" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="R21" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="S21" s="22"/>
+      <c r="S21" s="31"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7">
         <v>0</v>
@@ -1589,8 +1608,8 @@
       <c r="AF21" s="17"/>
     </row>
     <row r="22" spans="2:32" ht="19.5" thickBot="1">
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="16" t="s">
@@ -1698,10 +1717,10 @@
       <c r="X24" s="5">
         <v>0</v>
       </c>
-      <c r="Z24" s="23" t="s">
+      <c r="Z24" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AA24" s="24"/>
+      <c r="AA24" s="36"/>
       <c r="AB24" s="7"/>
       <c r="AC24" s="7">
         <v>0</v>
@@ -1796,10 +1815,10 @@
       </c>
     </row>
     <row r="27" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="15"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4">
         <v>0</v>
@@ -1832,10 +1851,10 @@
       </c>
     </row>
     <row r="28" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J28" s="20" t="s">
+      <c r="J28" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="15"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="4">
         <v>1</v>
       </c>
@@ -1866,10 +1885,10 @@
       </c>
     </row>
     <row r="29" spans="2:32">
-      <c r="J29" s="20" t="s">
+      <c r="J29" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="15"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="4">
         <v>1</v>
       </c>
@@ -1885,30 +1904,12 @@
       <c r="P29" s="5">
         <v>0</v>
       </c>
-      <c r="R29" t="s">
-        <v>59</v>
-      </c>
-      <c r="T29">
-        <v>1</v>
-      </c>
-      <c r="U29" s="11">
-        <v>1</v>
-      </c>
-      <c r="V29" s="11">
-        <v>1</v>
-      </c>
-      <c r="W29" s="11">
-        <v>1</v>
-      </c>
-      <c r="X29" s="36">
-        <v>1</v>
-      </c>
     </row>
     <row r="30" spans="2:32" ht="19.5" thickBot="1">
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="22"/>
+      <c r="K30" s="31"/>
       <c r="L30" s="7">
         <v>1</v>
       </c>
@@ -1935,8 +1936,8 @@
       </c>
     </row>
     <row r="31" spans="2:32">
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -1944,8 +1945,8 @@
       <c r="P31" s="4"/>
     </row>
     <row r="32" spans="2:32">
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -1953,8 +1954,8 @@
       <c r="P32" s="4"/>
     </row>
     <row r="33" spans="10:16">
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -1963,26 +1964,43 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="T16:X16"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="T23:X23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="Z22:AA22"/>
+    <mergeCell ref="Z23:AA23"/>
+    <mergeCell ref="Z24:AA24"/>
+    <mergeCell ref="Z25:AA25"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="AB21:AF21"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="AB15:AF15"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="L9:P9"/>
@@ -1999,43 +2017,26 @@
     <mergeCell ref="J18:K18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J10:K10"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="AB21:AF21"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="AB15:AF15"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="Z22:AA22"/>
-    <mergeCell ref="Z23:AA23"/>
-    <mergeCell ref="Z24:AA24"/>
-    <mergeCell ref="Z25:AA25"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="T23:X23"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="T16:X16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
